--- a/Old-cf/TestData.xlsx
+++ b/Old-cf/TestData.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>9990566182</t>
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>2124</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,8 +362,8 @@
       <c r="A1" s="1">
         <v>9811854502</v>
       </c>
-      <c r="B1" s="1">
-        <v>1234</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
